--- a/vtiger-crm-fw-A12/src/test/resources/TestScriptData.xlsx
+++ b/vtiger-crm-fw-A12/src/test/resources/TestScriptData.xlsx
@@ -3,21 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SONALI BISHT\git\repository\vtiger-crm-fw-A12\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C55D83-3BF6-4502-9BE0-D2B0FB43EB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1323DED3-41FA-43E4-8428-ABB94F40327C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A12" sheetId="1" r:id="rId1"/>
+    <sheet name="org" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Name</t>
   </si>
@@ -91,12 +92,19 @@
   </si>
   <si>
     <t>Dosa</t>
+  </si>
+  <si>
+    <t>EY_</t>
+  </si>
+  <si>
+    <t>Google_</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -433,14 +441,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.77734375" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.77734375"/>
+    <col min="2" max="2" customWidth="true" width="23.5546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -534,4 +542,28 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A8836B-15DD-4BA4-A3C5-33C2A318A924}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="343" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>